--- a/Analysis/LogAnalysis/LogStatistics.xlsx
+++ b/Analysis/LogAnalysis/LogStatistics.xlsx
@@ -9,12 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="basictes" sheetId="3" r:id="rId2"/>
+    <sheet name="gener" sheetId="4" r:id="rId3"/>
+    <sheet name="weird" sheetId="6" r:id="rId4"/>
+    <sheet name="complete" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">complete!$A$2:$P$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">gener!$A$1:$Z$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">weird!$A$2:$P$29</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="93">
   <si>
     <t>train_accuracy</t>
   </si>
@@ -40,6 +48,270 @@
   </si>
   <si>
     <t>epoch</t>
+  </si>
+  <si>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>64/64</t>
+  </si>
+  <si>
+    <t>[==============================]</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>3152s</t>
+  </si>
+  <si>
+    <t>loss:</t>
+  </si>
+  <si>
+    <t>class_accuracy:</t>
+  </si>
+  <si>
+    <t>val_loss:</t>
+  </si>
+  <si>
+    <t>val_class_accuracy:</t>
+  </si>
+  <si>
+    <t>3180s</t>
+  </si>
+  <si>
+    <t>3210s</t>
+  </si>
+  <si>
+    <t>3197s</t>
+  </si>
+  <si>
+    <t>3226s</t>
+  </si>
+  <si>
+    <t>3184s</t>
+  </si>
+  <si>
+    <t>3204s</t>
+  </si>
+  <si>
+    <t>3027s</t>
+  </si>
+  <si>
+    <t>3022s</t>
+  </si>
+  <si>
+    <t>128/128</t>
+  </si>
+  <si>
+    <t>3172s</t>
+  </si>
+  <si>
+    <t>3194s</t>
+  </si>
+  <si>
+    <t>3221s</t>
+  </si>
+  <si>
+    <t>3156s</t>
+  </si>
+  <si>
+    <t>3175s</t>
+  </si>
+  <si>
+    <t>4229s</t>
+  </si>
+  <si>
+    <t>6722s</t>
+  </si>
+  <si>
+    <t>6590s</t>
+  </si>
+  <si>
+    <t>6471s</t>
+  </si>
+  <si>
+    <t>6474s</t>
+  </si>
+  <si>
+    <t>6560s</t>
+  </si>
+  <si>
+    <t>3170s</t>
+  </si>
+  <si>
+    <t>13/20</t>
+  </si>
+  <si>
+    <t>3142s</t>
+  </si>
+  <si>
+    <t>14/20</t>
+  </si>
+  <si>
+    <t>3150s</t>
+  </si>
+  <si>
+    <t>15/20</t>
+  </si>
+  <si>
+    <t>3133s</t>
+  </si>
+  <si>
+    <t>16/20</t>
+  </si>
+  <si>
+    <t>3127s</t>
+  </si>
+  <si>
+    <t>17/20</t>
+  </si>
+  <si>
+    <t>18/20</t>
+  </si>
+  <si>
+    <t>3157s</t>
+  </si>
+  <si>
+    <t>19/20</t>
+  </si>
+  <si>
+    <t>3144s</t>
+  </si>
+  <si>
+    <t>20/20</t>
+  </si>
+  <si>
+    <t>3140s</t>
+  </si>
+  <si>
+    <t>0.3974***</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>`python':</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>corruption</t>
+  </si>
+  <si>
+    <t>(!prev):</t>
+  </si>
+  <si>
+    <t>0x0000000001415360</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>386/386</t>
+  </si>
+  <si>
+    <t>15989s</t>
+  </si>
+  <si>
+    <t>15925s</t>
+  </si>
+  <si>
+    <t>16174s</t>
+  </si>
+  <si>
+    <t>16148s</t>
+  </si>
+  <si>
+    <t>18098s</t>
+  </si>
+  <si>
+    <t>129/129</t>
+  </si>
+  <si>
+    <t>5157s</t>
+  </si>
+  <si>
+    <t>5084s</t>
+  </si>
+  <si>
+    <t>5047s</t>
+  </si>
+  <si>
+    <t>6105s</t>
+  </si>
+  <si>
+    <t>5260s</t>
+  </si>
+  <si>
+    <t>5302s</t>
+  </si>
+  <si>
+    <t>5357s</t>
+  </si>
+  <si>
+    <t>5318s</t>
+  </si>
+  <si>
+    <t>5221s</t>
+  </si>
+  <si>
+    <t>5098s</t>
+  </si>
+  <si>
+    <t>5280s</t>
+  </si>
+  <si>
+    <t>5450s</t>
+  </si>
+  <si>
+    <t>5390s</t>
+  </si>
+  <si>
+    <t>5409s</t>
   </si>
 </sst>
 </file>
@@ -75,8 +347,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -109,36 +382,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Accuracy Update</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> per Epoch</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -175,11 +418,11 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>basic!$C$1</c:f>
+              <c:f>basic!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -191,7 +434,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -202,7 +445,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>basic!$C$2:$C$31</c:f>
+              <c:f>basic!$G$2:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -302,16 +545,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-075B-4B21-9DBC-6B734FF0140F}"/>
+              <c16:uniqueId val="{00000000-E077-4BC2-A53C-94DBA5799C03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>basic!$E$1</c:f>
+              <c:f>basic!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -323,7 +566,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -334,7 +577,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>basic!$E$2:$E$31</c:f>
+              <c:f>basic!$H$2:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -434,7 +677,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-075B-4B21-9DBC-6B734FF0140F}"/>
+              <c16:uniqueId val="{00000001-E077-4BC2-A53C-94DBA5799C03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -447,16 +690,71 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="282515672"/>
-        <c:axId val="282521576"/>
+        <c:axId val="552569328"/>
+        <c:axId val="552571952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="282515672"/>
+        <c:axId val="552569328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -493,7 +791,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282521576"/>
+        <c:crossAx val="552571952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -501,7 +799,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="282521576"/>
+        <c:axId val="552571952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -552,7 +850,1365 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282515672"/>
+        <c:crossAx val="552569328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Accuracy Update per Epoch</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gener!$B$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train_accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>gener!$B$48:$B$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.36249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51949999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71209999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7359</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77459999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79369999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85309999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5178-4AAF-BBB3-0A9863AE9844}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gener!$C$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>val_accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>gener!$C$48:$C$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.41880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46789999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44230000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42309999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39739999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5178-4AAF-BBB3-0A9863AE9844}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="563250704"/>
+        <c:axId val="563247752"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="563250704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563247752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="563247752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563250704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Accuracy Update per Epoch</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weird!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train_accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>weird!$C$33:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.3891</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.38450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38450000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B141-483C-8768-A9D7ECCD71B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weird!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>val_accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>weird!$D$33:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.38750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39379999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39379999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39379999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35630000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43130000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38750000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B141-483C-8768-A9D7ECCD71B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="545213944"/>
+        <c:axId val="545214272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="545213944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545214272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="545214272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="545213944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Accuracy Update per Epoch</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>complete!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train_accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>complete!$C$17:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.43469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50360000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.61009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B43B-45B9-B8B6-00EC54A88779}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>complete!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>val_accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>complete!$D$17:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.46250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51659999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52980000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54300000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B43B-45B9-B8B6-00EC54A88779}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="578923032"/>
+        <c:axId val="578921064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="578923032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>epoch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578921064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="578921064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578923032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -672,6 +2328,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1188,27 +2964,1698 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D78182-3D2B-403C-9A18-F6708A015ABD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38723DC3-9905-4F66-B553-230CEB62BD09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{608566BE-EA30-4F57-8CB9-38A11E202302}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C352C14-456E-4B96-B274-24E49887AC7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{760C4C38-AB6D-4E74-99F2-3711A5F05995}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,10 +4987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +5001,7 @@
     <col min="5" max="5" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1570,8 +5017,14 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1587,8 +5040,14 @@
       <c r="E2">
         <v>0.38750000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>0.39069999999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1604,8 +5063,14 @@
       <c r="E3">
         <v>0.39369999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="H3">
+        <v>0.39369999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1621,8 +5086,14 @@
       <c r="E4">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1638,8 +5109,14 @@
       <c r="E5">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="H5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1655,8 +5132,14 @@
       <c r="E6">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1672,8 +5155,14 @@
       <c r="E7">
         <v>0.42499999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1689,8 +5178,14 @@
       <c r="E8">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1706,8 +5201,14 @@
       <c r="E9">
         <v>0.35630000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.35630000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1723,8 +5224,14 @@
       <c r="E10">
         <v>0.42499999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1740,8 +5247,14 @@
       <c r="E11">
         <v>0.40620000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.40620000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1757,8 +5270,14 @@
       <c r="E12">
         <v>0.40620000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.40620000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1774,8 +5293,14 @@
       <c r="E13">
         <v>0.3125</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1791,8 +5316,14 @@
       <c r="E14">
         <v>0.40620000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.40620000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1808,8 +5339,14 @@
       <c r="E15">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1825,8 +5362,14 @@
       <c r="E16">
         <v>0.41880000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.41880000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1842,8 +5385,14 @@
       <c r="E17">
         <v>0.36249999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.36249999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1859,8 +5408,14 @@
       <c r="E18">
         <v>0.38750000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0.3876</v>
+      </c>
+      <c r="H18">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1876,8 +5431,14 @@
       <c r="E19">
         <v>0.39369999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0.39069999999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.39369999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1893,8 +5454,14 @@
       <c r="E20">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0.40160000000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1910,8 +5477,14 @@
       <c r="E21">
         <v>0.36880000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0.4078</v>
+      </c>
+      <c r="H21">
+        <v>0.36880000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1927,8 +5500,14 @@
       <c r="E22">
         <v>0.39369999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>0.42949999999999999</v>
+      </c>
+      <c r="H22">
+        <v>0.39369999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1944,8 +5523,14 @@
       <c r="E23">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>0.45739999999999997</v>
+      </c>
+      <c r="H23">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1961,8 +5546,14 @@
       <c r="E24">
         <v>0.41249999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0.47439999999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.41249999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1978,8 +5569,14 @@
       <c r="E25">
         <v>0.40620000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>0.51780000000000004</v>
+      </c>
+      <c r="H25">
+        <v>0.40620000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1995,8 +5592,14 @@
       <c r="E26">
         <v>0.43130000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>0.55349999999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.43130000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2012,8 +5615,14 @@
       <c r="E27">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>0.59840000000000004</v>
+      </c>
+      <c r="H27">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2029,8 +5638,14 @@
       <c r="E28">
         <v>0.36249999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>0.63880000000000003</v>
+      </c>
+      <c r="H28">
+        <v>0.36249999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2046,8 +5661,14 @@
       <c r="E29">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0.65580000000000005</v>
+      </c>
+      <c r="H29">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2063,8 +5684,14 @@
       <c r="E30">
         <v>0.33750000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0.66359999999999997</v>
+      </c>
+      <c r="H30">
+        <v>0.33750000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2078,6 +5705,12 @@
         <v>0.32340000000000002</v>
       </c>
       <c r="E31">
+        <v>0.43130000000000002</v>
+      </c>
+      <c r="G31">
+        <v>0.68369999999999997</v>
+      </c>
+      <c r="H31">
         <v>0.43130000000000002</v>
       </c>
     </row>
@@ -2092,12 +5725,3322 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1">
+        <v>14611</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>0.42520000000000002</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>0.4078</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>0.37019999999999997</v>
+      </c>
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2">
+        <v>0.35630000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>14642</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>0.39379999999999998</v>
+      </c>
+      <c r="N4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <v>0.41060000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>14671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>0.9859</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6">
+        <v>0.42630000000000001</v>
+      </c>
+      <c r="N6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6">
+        <v>0.4834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>14702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8">
+        <v>0.52270000000000005</v>
+      </c>
+      <c r="N8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8">
+        <v>0.43709999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>14732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10">
+        <v>0.52849999999999997</v>
+      </c>
+      <c r="N10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10">
+        <v>0.44369999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>14763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12">
+        <v>0.50790000000000002</v>
+      </c>
+      <c r="N12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12">
+        <v>0.46360000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>14793</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>2.8E-3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="N14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16">
+        <v>0.62660000000000005</v>
+      </c>
+      <c r="N16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16">
+        <v>0.36420000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>14855</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>2E-3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <v>0.58409999999999995</v>
+      </c>
+      <c r="N18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18">
+        <v>0.47020000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>14885</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="N20" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20">
+        <v>0.46360000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>14916</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Z57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>0.52659999999999996</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>0.42120000000000002</v>
+      </c>
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2">
+        <v>0.41880000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>0.3266</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>0.51949999999999996</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="N4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <v>0.47439999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>0.25269999999999998</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>0.6008</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6">
+        <v>0.38250000000000001</v>
+      </c>
+      <c r="N6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6">
+        <v>0.43590000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>0.2339</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>0.65229999999999999</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8">
+        <v>0.37880000000000003</v>
+      </c>
+      <c r="N8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8">
+        <v>0.48720000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>0.19789999999999999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10">
+        <v>0.71209999999999996</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10">
+        <v>0.43459999999999999</v>
+      </c>
+      <c r="N10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10">
+        <v>0.46789999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>0.7359</v>
+      </c>
+      <c r="K12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12">
+        <v>0.4032</v>
+      </c>
+      <c r="N12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12">
+        <v>0.44230000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>0.1411</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14">
+        <v>0.77459999999999996</v>
+      </c>
+      <c r="K14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>0.45779999999999998</v>
+      </c>
+      <c r="N14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>0.46150000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>0.12889999999999999</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>0.79369999999999996</v>
+      </c>
+      <c r="K16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16">
+        <v>0.45910000000000001</v>
+      </c>
+      <c r="N16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16">
+        <v>0.42309999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>0.1082</v>
+      </c>
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="K18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <v>0.61560000000000004</v>
+      </c>
+      <c r="N18" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20">
+        <v>0.50480000000000003</v>
+      </c>
+      <c r="N20" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20">
+        <v>0.39739999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22">
+        <v>0.87929999999999997</v>
+      </c>
+      <c r="K22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22">
+        <v>0.60840000000000005</v>
+      </c>
+      <c r="N22" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22">
+        <v>0.43590000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="K24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24">
+        <v>0.58389999999999997</v>
+      </c>
+      <c r="N24" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="K26" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26">
+        <v>0.59340000000000004</v>
+      </c>
+      <c r="N26" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26">
+        <v>0.41670000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="K28" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28">
+        <v>0.61129999999999995</v>
+      </c>
+      <c r="N28" t="s">
+        <v>8</v>
+      </c>
+      <c r="O28" t="s">
+        <v>13</v>
+      </c>
+      <c r="P28">
+        <v>0.35260000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>5.6300000000000003E-2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="K30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30">
+        <v>0.67549999999999999</v>
+      </c>
+      <c r="N30" t="s">
+        <v>8</v>
+      </c>
+      <c r="O30" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30">
+        <v>0.39739999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>0.04</v>
+      </c>
+      <c r="H32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32">
+        <v>0.95</v>
+      </c>
+      <c r="K32" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32">
+        <v>0.73660000000000003</v>
+      </c>
+      <c r="N32" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32">
+        <v>0.3846</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>4.36E-2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="K34" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="N34" t="s">
+        <v>8</v>
+      </c>
+      <c r="O34" t="s">
+        <v>13</v>
+      </c>
+      <c r="P34">
+        <v>0.34620000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36">
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="K36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36">
+        <v>0.70979999999999999</v>
+      </c>
+      <c r="N36" t="s">
+        <v>8</v>
+      </c>
+      <c r="O36" t="s">
+        <v>13</v>
+      </c>
+      <c r="P36">
+        <v>0.3654</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38">
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="K38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38">
+        <v>0.60729999999999995</v>
+      </c>
+      <c r="N38" t="s">
+        <v>8</v>
+      </c>
+      <c r="O38" t="s">
+        <v>13</v>
+      </c>
+      <c r="P38">
+        <v>0.40379999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40">
+        <v>0.96089999999999998</v>
+      </c>
+      <c r="K40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40">
+        <v>0.59089999999999998</v>
+      </c>
+      <c r="N40" t="s">
+        <v>8</v>
+      </c>
+      <c r="O40" t="s">
+        <v>13</v>
+      </c>
+      <c r="P40" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>51</v>
+      </c>
+      <c r="R40" t="s">
+        <v>52</v>
+      </c>
+      <c r="S40" t="s">
+        <v>53</v>
+      </c>
+      <c r="T40" t="s">
+        <v>54</v>
+      </c>
+      <c r="U40" t="s">
+        <v>55</v>
+      </c>
+      <c r="V40" t="s">
+        <v>56</v>
+      </c>
+      <c r="W40" t="s">
+        <v>57</v>
+      </c>
+      <c r="X40" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="C48">
+        <v>0.41880000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0.51949999999999996</v>
+      </c>
+      <c r="C49">
+        <v>0.47439999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0.6008</v>
+      </c>
+      <c r="C50">
+        <v>0.43590000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0.65229999999999999</v>
+      </c>
+      <c r="C51">
+        <v>0.48720000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0.71209999999999996</v>
+      </c>
+      <c r="C52">
+        <v>0.46789999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>0.7359</v>
+      </c>
+      <c r="C53">
+        <v>0.44230000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0.77459999999999996</v>
+      </c>
+      <c r="C54">
+        <v>0.46150000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0.79369999999999996</v>
+      </c>
+      <c r="C55">
+        <v>0.42309999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="C56">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="C57">
+        <v>0.39739999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Z40">
+    <filterColumn colId="9">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:P46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43831</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>0.3891</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <v>0.33079999999999998</v>
+      </c>
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <v>0.32529999999999998</v>
+      </c>
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>0.34489999999999998</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <v>0.3221</v>
+      </c>
+      <c r="N7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7">
+        <v>0.39379999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>0.3448</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9">
+        <v>0.32219999999999999</v>
+      </c>
+      <c r="N9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9">
+        <v>0.39379999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>0.34460000000000002</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11">
+        <v>0.32079999999999997</v>
+      </c>
+      <c r="N11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11">
+        <v>0.41249999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>0.34439999999999998</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="N13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>0.34470000000000001</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="K15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15">
+        <v>0.33950000000000002</v>
+      </c>
+      <c r="N15" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>0.39379999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>0.34470000000000001</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="K17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17">
+        <v>0.33810000000000001</v>
+      </c>
+      <c r="N17" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>0.34460000000000002</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="K19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19">
+        <v>0.31909999999999999</v>
+      </c>
+      <c r="N19" t="s">
+        <v>8</v>
+      </c>
+      <c r="O19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19">
+        <v>0.34379999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>0.34420000000000001</v>
+      </c>
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="K21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="N21" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" t="s">
+        <v>13</v>
+      </c>
+      <c r="P21">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>0.34460000000000002</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="K23" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23">
+        <v>0.32629999999999998</v>
+      </c>
+      <c r="N23" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23">
+        <v>0.35630000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>0.3448</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25">
+        <v>0.34350000000000003</v>
+      </c>
+      <c r="N25" t="s">
+        <v>8</v>
+      </c>
+      <c r="O25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25">
+        <v>0.34379999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>0.34439999999999998</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="K27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="N27" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27">
+        <v>0.43130000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>0.34429999999999999</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="K29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29">
+        <v>0.32269999999999999</v>
+      </c>
+      <c r="N29" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" t="s">
+        <v>13</v>
+      </c>
+      <c r="P29">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>0.3891</v>
+      </c>
+      <c r="D33">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="D34">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="D35">
+        <v>0.39379999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="D36">
+        <v>0.39379999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="D37">
+        <v>0.41249999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="D38">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.39379999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="D40">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="D41">
+        <v>0.34379999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="D42">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="D43">
+        <v>0.35630000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="D44">
+        <v>0.34379999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="D45">
+        <v>0.43130000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="D46">
+        <v>0.38750000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:P29">
+    <filterColumn colId="9">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="C16:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1">
+        <v>14611</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>0.38059999999999999</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>0.43469999999999998</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>0.30259999999999998</v>
+      </c>
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2">
+        <v>0.46250000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>14642</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>0.2979</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>0.50360000000000005</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>0.28670000000000001</v>
+      </c>
+      <c r="N4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <v>0.51659999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>14671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>0.55249999999999999</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6">
+        <v>0.32190000000000002</v>
+      </c>
+      <c r="N6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6">
+        <v>0.52980000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>14702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>0.2457</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>0.61009999999999998</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8">
+        <v>0.32079999999999997</v>
+      </c>
+      <c r="N8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8">
+        <v>0.47020000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>14732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>0.22969999999999999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10">
+        <v>0.3135</v>
+      </c>
+      <c r="N10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10">
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>0.43469999999999998</v>
+      </c>
+      <c r="D17">
+        <v>0.46250000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0.50360000000000005</v>
+      </c>
+      <c r="D18">
+        <v>0.51659999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>0.55249999999999999</v>
+      </c>
+      <c r="D19">
+        <v>0.52980000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>0.61009999999999998</v>
+      </c>
+      <c r="D20">
+        <v>0.47020000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:P10">
+    <filterColumn colId="9">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>